--- a/Optimization Results.xlsx
+++ b/Optimization Results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,158 +447,119 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[5, 6, 11, 15, 23, 33, 325, 450, 28, 33, 35, 36, 65, 70, 45, 46, 51, 62, 65, 70]</t>
+          <t>[10, 14, 15, 25, 26, 33, 325, 450, 18, 45, 48, 49, 65, 70, 76, 79, 83, 87, 65, 70]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.52163595762726</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 17, 23, 39, 325, 450, 28, 31, 33, 36, 65, 70, 43, 45, 51, 56, 65, 70]</t>
+          <t>[6, 8, 15, 38, 48, 49, 325, 450, 14, 43, 44, 47, 65, 70, 79, 87, 88, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>31.07313406457828</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 17, 23, 39, 325, 450, 28, 31, 33, 36, 65, 70, 43, 45, 51, 56, 65, 70]</t>
+          <t>[4, 6, 20, 27, 40, 42, 325, 450, 11, 43, 44, 47, 65, 70, 61, 82, 87, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.07313406457828</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[2, 3, 7, 17, 23, 39, 325, 450, 28, 31, 33, 36, 65, 70, 43, 45, 51, 56, 65, 70]</t>
+          <t>[10, 4, 17, 22, 28, 31, 317, 318, 319, 320, 38, 40, 44, 48, 76, 79, 83, 87, 65, 70]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.07313406457828</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1, 6, 7, 11, 33, 45, 325, 450, 20, 30, 33, 42, 65, 70, 42, 44, 48, 65, 65, 70]</t>
+          <t>[7, 2, 36, 43, 46, 53, 423, 424, 425, 426, 34, 59, 67, 72, 79, 87, 88, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.70821861648994</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3, 2, 11, 17, 31, 39, 325, 450, 26, 31, 37, 39, 65, 70, 45, 47, 51, 62, 65, 70]</t>
+          <t>[4, 6, 20, 27, 40, 42, 325, 450, 11, 43, 44, 47, 65, 70, 61, 82, 87, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30.49813029056583</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[2, 5, 9, 11, 23, 33, 325, 450, 24, 31, 35, 38, 65, 70, 42, 48, 52, 58, 65, 70]</t>
+          <t>[7, 3, 11, 12, 13, 26, 423, 424, 425, 426, 35, 37, 40, 55, 76, 79, 83, 87, 65, 70]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30.28297444809122</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1, 2, 7, 11, 15, 45, 325, 450, 20, 30, 38, 42, 65, 70, 42, 44, 48, 54, 65, 70]</t>
+          <t>[3, 5, 35, 43, 46, 56, 307, 309, 310, 320, 44, 50, 68, 82, 79, 87, 88, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30.22454217737516</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1, 2, 7, 11, 15, 45, 325, 450, 20, 30, 38, 42, 65, 70, 42, 44, 48, 54, 65, 70]</t>
+          <t>[4, 6, 20, 27, 40, 42, 325, 450, 11, 43, 44, 47, 65, 70, 61, 82, 87, 89, 65, 70]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30.22454217737516</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[1, 6, 7, 22, 33, 45, 325, 450, 20, 30, 38, 42, 65, 70, 42, 50, 55, 65, 65, 70]</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>30.02507629911494</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[5, 6, 7, 11, 15, 45, 325, 450, 20, 30, 38, 42, 65, 70, 45, 50, 55, 65, 65, 70]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>29.704418240571</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[1, 2, 7, 11, 15, 30, 325, 450, 20, 30, 33, 36, 65, 70, 45, 50, 55, 65, 65, 70]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>29.55918107806018</v>
+        <v>35.65267854771783</v>
       </c>
     </row>
   </sheetData>
